--- a/medicine/Enfance/Juliette_Binet/Juliette_Binet.xlsx
+++ b/medicine/Enfance/Juliette_Binet/Juliette_Binet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juliette Binet (née en 1984) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juliette Binet est née à Rennes. Elle a vécu à Tours puis à Nantes. Elle a suivi une formation aux Arts décoratifs de Strasbourg. Elle travaille et vit actuellement à Paris[1],[2],[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juliette Binet est née à Rennes. Elle a vécu à Tours puis à Nantes. Elle a suivi une formation aux Arts décoratifs de Strasbourg. Elle travaille et vit actuellement à Paris.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, elle est sélectionnée avec «mention spéciale» au concours international d’illustrations de Chioggia . Elle reçoit en 2007 le prix «Ritleng» décerné par la ville de Strasbourg.
 En 2008, elle obtient le Grand prix de l’illustration du Musée de l'illustration jeunesse, à Moulins, dans l’Allier. 
